--- a/biology/Zoologie/Biblidinae/Biblidinae.xlsx
+++ b/biology/Zoologie/Biblidinae/Biblidinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Biblidinae sont une sous-famille de lépidoptères (papillons) de la famille des Nymphalidae.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Décrite par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1833.
-Synonyme
-Eurytelinae</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Décrite par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1833.</t>
         </is>
       </c>
     </row>
@@ -540,19 +552,95 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eurytelinae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Biblidinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblidinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des tribus et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tribu des Ageroniini Doubleday, 1847
-Batesia Felder &amp; Felder, 1862
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tribu des Ageroniini Doubleday, 1847</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batesia Felder &amp; Felder, 1862
 Ectima Doubleday, 1848
 Hamadryas Hübner, 1819
 Panacea Godman &amp; Salvin, 1883
 			Hamadryas chloe - MHNT
-Tribu des Biblidini Boisduval, 1833
-Archimestra Munroe, 1949
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Biblidinae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblidinae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des tribus et genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tribu des Biblidini Boisduval, 1833</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archimestra Munroe, 1949
 Ariadne Horsfield, 1829
 Biblis Fabricius, 1807
 Byblia Hübner, 1819
@@ -563,19 +651,89 @@
 Neptidopsis Aurivillius, 1898
 Vila Kirby, 1871
 			Biblis hyperia - MHNT
-Tribu des Epicaliini (Guenée, 1865)
-Catonephele Hübner, [1819]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Biblidinae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblidinae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des tribus et genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tribu des Epicaliini (Guenée, 1865)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catonephele Hübner, 
 Cybdelis Boisduval, 1836
-Eunica Hübner, [1819]
-Nessaea Hübner, [1819]
+Eunica Hübner, 
+Nessaea Hübner, 
 Myscelia Doubleday, 1844
 Sallya Hemming, 1964 synonyme Sevenia Koçak, 1996
 Sea Hayward, 1950
 			Catonephele acontius - MHNT
 			Eunica alpais - MHNT
 			Nessaea batesii - MHNT
-Tribu des Epiphilini Jenkins, 1987
-Asterope Hübner, 1819
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Biblidinae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblidinae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des tribus et genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tribu des Epiphilini Jenkins, 1987</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asterope Hübner, 1819
 Bolboneura Godman &amp; Salvin, 1877
 Epiphile Doubleday, 1844
 Lucinia Hübner, 1823
@@ -584,17 +742,87 @@
 Pyrrhogyra Hübner, 1819
 Temenis Hübner, 1819
 			Pyrrhogyra neaerea - MHNT
-Tribu des Eubagini Burmeister, 1878
-Dynamine Hübner, 1819
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Biblidinae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblidinae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des tribus et genres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tribu des Eubagini Burmeister, 1878</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamine Hübner, 1819
 			Dynamine athemon - MHNT
-Tribu des Callicorini Orfila, 1952
-Antigonis Felder, 1861
-Callicore Hübner, [1819]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Biblidinae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biblidinae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des tribus et genres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tribu des Callicorini Orfila, 1952</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antigonis Felder, 1861
+Callicore Hübner, 
 Catacore Dillon, 1948
 Diaethria Billberg, 1820
 Haematera Doubleday, 1849
 Mesotaenia Kirby, 1871
-Orophila Staudinger, [1886]
+Orophila Staudinger, 
 Paulogramma Dillon, 1948
 Perisama Doubleday, 1849
 			Callicore Pastazza
